--- a/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14205</v>
+        <v>12438</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01384484876617447</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07839481057191829</v>
+        <v>0.06864343514051918</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12802</v>
+        <v>12663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006868876900106424</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03505490902490832</v>
+        <v>0.03467302881102539</v>
       </c>
     </row>
     <row r="5">
@@ -807,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22140</v>
+        <v>15379</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01961589884883255</v>
+        <v>0.01961589884883256</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1203165683705986</v>
+        <v>0.08357267153035818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8749</v>
+        <v>8186</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.009179189392183724</v>
+        <v>0.009179189392183722</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04828752330685325</v>
+        <v>0.0451781561096545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21089</v>
+        <v>19590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01443791000181491</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05774343914146485</v>
+        <v>0.05363891428784903</v>
       </c>
     </row>
     <row r="6">
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6120</v>
+        <v>6495</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006856370874374193</v>
+        <v>0.006856370874374192</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03377413365712226</v>
+        <v>0.03584570265408953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6541</v>
+        <v>7210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003401667169714022</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01791027436250977</v>
+        <v>0.01974294434306617</v>
       </c>
     </row>
     <row r="11">
@@ -1126,19 +1126,19 @@
         <v>10530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1789</v>
+        <v>1847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30130</v>
+        <v>32736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05722224704124832</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009722702802674231</v>
+        <v>0.01003969822827208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1637365112992514</v>
+        <v>0.1778971148194108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1147,19 +1147,19 @@
         <v>8754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2391</v>
+        <v>1877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23495</v>
+        <v>20060</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04831320625301637</v>
+        <v>0.04831320625301636</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01319840643295737</v>
+        <v>0.01035746990696874</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1296683887236283</v>
+        <v>0.110711678956275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1168,19 +1168,19 @@
         <v>19284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7785</v>
+        <v>8293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44149</v>
+        <v>40682</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05280218399065703</v>
+        <v>0.05280218399065702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02131649328907809</v>
+        <v>0.02270714744324821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1208861545351419</v>
+        <v>0.1113926483246775</v>
       </c>
     </row>
     <row r="12">
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15266</v>
+        <v>15928</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02086943804194228</v>
+        <v>0.02086943804194229</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08295816680201068</v>
+        <v>0.08655587711414527</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8770</v>
+        <v>9686</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.009422335743338473</v>
+        <v>0.009422335743338471</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0484000568371818</v>
+        <v>0.05345411680574649</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1239,19 +1239,19 @@
         <v>5548</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1635</v>
+        <v>1185</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17168</v>
+        <v>17725</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0151901606529296</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004478091736402559</v>
+        <v>0.003245323112288635</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04700951088537124</v>
+        <v>0.04853426899515995</v>
       </c>
     </row>
     <row r="13">
@@ -1268,19 +1268,19 @@
         <v>22111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10285</v>
+        <v>10078</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40643</v>
+        <v>42551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1201591608863217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05589290516046311</v>
+        <v>0.05476694150907076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2208663913963584</v>
+        <v>0.2312337806080608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1289,19 +1289,19 @@
         <v>7581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19870</v>
+        <v>20730</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04183886570878244</v>
+        <v>0.04183886570878243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01300237651732132</v>
+        <v>0.01303910195735312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1096619068337694</v>
+        <v>0.1144092067164048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1310,19 +1310,19 @@
         <v>29692</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15831</v>
+        <v>16014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49643</v>
+        <v>49614</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08130193135349485</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04334709523922439</v>
+        <v>0.04384893500813566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1359289420838479</v>
+        <v>0.1358488157698425</v>
       </c>
     </row>
     <row r="14">
@@ -1339,19 +1339,19 @@
         <v>16008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7951</v>
+        <v>8943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27381</v>
+        <v>29432</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08699126316964494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04320873314770234</v>
+        <v>0.04859786328065459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1487979004792321</v>
+        <v>0.159943507241131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1360,19 +1360,19 @@
         <v>29396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18593</v>
+        <v>18637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44400</v>
+        <v>44774</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1622348065062305</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1026128741525023</v>
+        <v>0.1028570011498602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2450423739921362</v>
+        <v>0.2471073879328071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -1381,19 +1381,19 @@
         <v>45404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30785</v>
+        <v>31970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63682</v>
+        <v>63942</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1243220166820677</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08429301903885843</v>
+        <v>0.08753745185996005</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1743709998992997</v>
+        <v>0.1750805101118725</v>
       </c>
     </row>
     <row r="15">
@@ -1410,19 +1410,19 @@
         <v>127919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>106510</v>
+        <v>104261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>145677</v>
+        <v>144992</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6951419920120101</v>
+        <v>0.6951419920120102</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.578802817984536</v>
+        <v>0.5665794400423443</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7916451525833644</v>
+        <v>0.7879231485961382</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>72</v>
@@ -1431,19 +1431,19 @@
         <v>128341</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>110932</v>
+        <v>111734</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>142848</v>
+        <v>145547</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7083103767558998</v>
+        <v>0.7083103767558997</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6122322425717762</v>
+        <v>0.6166550534970692</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7883740286519607</v>
+        <v>0.8032710616978997</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -1452,19 +1452,19 @@
         <v>256260</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>229819</v>
+        <v>227853</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>281554</v>
+        <v>279620</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.7016752532492156</v>
+        <v>0.7016752532492155</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6292768877529399</v>
+        <v>0.6238933190802111</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7709343698755989</v>
+        <v>0.7656361297539273</v>
       </c>
     </row>
     <row r="16">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7997</v>
+        <v>6398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006466087531747532</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0357305912359176</v>
+        <v>0.02858719481788248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7416</v>
+        <v>7403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003289292274423899</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01685534511313141</v>
+        <v>0.01682508586196141</v>
       </c>
     </row>
     <row r="18">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12822</v>
+        <v>13895</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01834921698422521</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05931862332257372</v>
+        <v>0.06428004923961197</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1640,19 +1640,19 @@
         <v>3516</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9824</v>
+        <v>10685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01570869055816108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003358534791738289</v>
+        <v>0.003342896291568933</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04389558300189801</v>
+        <v>0.04774156303214718</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1661,19 +1661,19 @@
         <v>7482</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2390</v>
+        <v>2560</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19286</v>
+        <v>18118</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01700598382645855</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005432817402869447</v>
+        <v>0.005817898528509845</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04383449327871965</v>
+        <v>0.04117958948323534</v>
       </c>
     </row>
     <row r="19">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8376</v>
+        <v>9249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007600083480571123</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03875020520718105</v>
+        <v>0.04278667577550245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7025</v>
+        <v>6942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009490264695067299</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03138560454363839</v>
+        <v>0.03101750588899187</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1779,19 +1779,19 @@
         <v>3767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10609</v>
+        <v>11352</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.008561616778036888</v>
+        <v>0.008561616778036884</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002114308293591543</v>
+        <v>0.002135743888404475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02411378424573044</v>
+        <v>0.02580062015044158</v>
       </c>
     </row>
     <row r="21">
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6090</v>
+        <v>5178</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004850847503839123</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02720870368820311</v>
+        <v>0.02313688723301739</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5577</v>
+        <v>6101</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002467621284191653</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01267478409750014</v>
+        <v>0.01386648982640003</v>
       </c>
     </row>
     <row r="22">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11067</v>
+        <v>10639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00955080870250897</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0511994438772023</v>
+        <v>0.0492176010578238</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9218</v>
+        <v>9281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01120361924958484</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04118512474449986</v>
+        <v>0.04146829159106338</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -1913,19 +1913,19 @@
         <v>4572</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14034</v>
+        <v>14474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01039159177834737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00199299208735415</v>
+        <v>0.001937774737490651</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03189739173027809</v>
+        <v>0.03289837186585766</v>
       </c>
     </row>
     <row r="23">
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8351</v>
+        <v>9148</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007504994425914927</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03863527235598137</v>
+        <v>0.04231919972301774</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5347</v>
+        <v>5472</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004766507583442787</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02388976738216429</v>
+        <v>0.02444725383151398</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9258</v>
+        <v>8934</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006111928902083287</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02104108764486029</v>
+        <v>0.020306008187833</v>
       </c>
     </row>
     <row r="24">
@@ -2013,19 +2013,19 @@
         <v>7101</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1486</v>
+        <v>1461</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20244</v>
+        <v>19901</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03284954111468059</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006876151731863605</v>
+        <v>0.006756804455167924</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09365182582368313</v>
+        <v>0.09206577185097786</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2034,19 +2034,19 @@
         <v>6407</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1842</v>
+        <v>1705</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16854</v>
+        <v>15558</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02862447217856143</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008229348845085341</v>
+        <v>0.007616375816828383</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07530531939582188</v>
+        <v>0.06951464090088644</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -2055,19 +2055,19 @@
         <v>13507</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5883</v>
+        <v>5989</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28699</v>
+        <v>28639</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03070025276337843</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01337156479274717</v>
+        <v>0.01361323870937317</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06522865708624931</v>
+        <v>0.06509160549097903</v>
       </c>
     </row>
     <row r="25">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12973</v>
+        <v>13251</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01206025103961881</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06001585053282938</v>
+        <v>0.06130039380623694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2105,19 +2105,19 @@
         <v>3656</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9024</v>
+        <v>8774</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01633645571065371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004071430879103901</v>
+        <v>0.004020307706033694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04032068614557267</v>
+        <v>0.03920427062305162</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2126,19 +2126,19 @@
         <v>6263</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2076</v>
+        <v>1876</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17377</v>
+        <v>17054</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01423555208824056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00471775305113713</v>
+        <v>0.004264984301573644</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03949575380100389</v>
+        <v>0.0387607046042203</v>
       </c>
     </row>
     <row r="26">
@@ -2155,19 +2155,19 @@
         <v>23140</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13208</v>
+        <v>12680</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39002</v>
+        <v>40688</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1070487684243672</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06110408279465647</v>
+        <v>0.05866013869766961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1804307374614957</v>
+        <v>0.1882306360102316</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -2176,19 +2176,19 @@
         <v>10536</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4977</v>
+        <v>5417</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18231</v>
+        <v>19064</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0470763101642169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02223571507149051</v>
+        <v>0.02420512408429138</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08145752745315928</v>
+        <v>0.08517866261179861</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -2197,19 +2197,19 @@
         <v>33676</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21651</v>
+        <v>21770</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>51083</v>
+        <v>54153</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07654083875827924</v>
+        <v>0.07654083875827923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04920906965709509</v>
+        <v>0.04948080594718006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1161040509735918</v>
+        <v>0.1230821632192475</v>
       </c>
     </row>
     <row r="27">
@@ -2226,19 +2226,19 @@
         <v>26959</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17484</v>
+        <v>16936</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>39429</v>
+        <v>39830</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.124717590968271</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08088452599244314</v>
+        <v>0.07835181310424666</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1824096031483839</v>
+        <v>0.1842616654632576</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>22</v>
@@ -2247,19 +2247,19 @@
         <v>20274</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13085</v>
+        <v>12733</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30373</v>
+        <v>30785</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09058337875708247</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05846417197735064</v>
+        <v>0.05689026925697795</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1357064030479609</v>
+        <v>0.1375479073513983</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>44</v>
@@ -2268,19 +2268,19 @@
         <v>47233</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>35717</v>
+        <v>35431</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>62792</v>
+        <v>63834</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1073535512814368</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08118065141542392</v>
+        <v>0.08052979790626426</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1427179425101071</v>
+        <v>0.1450872887823572</v>
       </c>
     </row>
     <row r="28">
@@ -2297,19 +2297,19 @@
         <v>147057</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>128014</v>
+        <v>126573</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>165414</v>
+        <v>164910</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.680318744859842</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5922210323999654</v>
+        <v>0.585554671509495</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.765244459324205</v>
+        <v>0.7629086155162652</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>159</v>
@@ -2318,19 +2318,19 @@
         <v>171194</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>158042</v>
+        <v>156733</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>183768</v>
+        <v>183680</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7648933660676429</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7061308253186965</v>
+        <v>0.700282042419977</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8210765345060658</v>
+        <v>0.8206809887333102</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>249</v>
@@ -2339,19 +2339,19 @@
         <v>318251</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>289696</v>
+        <v>292535</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>338108</v>
+        <v>338116</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7233417702651235</v>
+        <v>0.7233417702651234</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.658439895107182</v>
+        <v>0.6648921533118276</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7684735498745842</v>
+        <v>0.7684924724765808</v>
       </c>
     </row>
     <row r="29">
@@ -2443,19 +2443,19 @@
         <v>7761</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2913</v>
+        <v>3266</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16063</v>
+        <v>16909</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02297118780110939</v>
+        <v>0.0229711878011094</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008621657650220499</v>
+        <v>0.009665874386157449</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04754180808319743</v>
+        <v>0.0500461581783313</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2464,19 +2464,19 @@
         <v>2412</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7052</v>
+        <v>7218</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008206713017834847</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002355317761942147</v>
+        <v>0.002357658330701083</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02399459786649442</v>
+        <v>0.02455962706182144</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2485,19 +2485,19 @@
         <v>10173</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4780</v>
+        <v>4872</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19426</v>
+        <v>19409</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01610258101019923</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007565493179757036</v>
+        <v>0.007711841405400492</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03074673703336907</v>
+        <v>0.03072046253397117</v>
       </c>
     </row>
     <row r="31">
@@ -2514,19 +2514,19 @@
         <v>3599</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9614</v>
+        <v>9724</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01065040678749957</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002771197762945661</v>
+        <v>0.002659815834268856</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02845440320872433</v>
+        <v>0.02877856506997531</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2535,19 +2535,19 @@
         <v>4602</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2177</v>
+        <v>2201</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9493</v>
+        <v>10005</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01565759707821821</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00740681483991273</v>
+        <v>0.007488078667421034</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03229786875841385</v>
+        <v>0.03404064156465442</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -2556,19 +2556,19 @@
         <v>8201</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3932</v>
+        <v>4043</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14855</v>
+        <v>16525</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.01297981042285067</v>
+        <v>0.01297981042285068</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006223056787327519</v>
+        <v>0.006399172307051738</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02351189501080694</v>
+        <v>0.02615516887780944</v>
       </c>
     </row>
     <row r="32">
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6415</v>
+        <v>5646</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.003308439213542284</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01898552080604226</v>
+        <v>0.01671081509488047</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5663</v>
+        <v>6941</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.001769314498100827</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.008962991022841838</v>
+        <v>0.01098696272075328</v>
       </c>
     </row>
     <row r="34">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5459</v>
+        <v>5452</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005291260957068572</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01857230862804229</v>
+        <v>0.01854837308381598</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5435</v>
+        <v>6026</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002461556640224659</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.00860230365501248</v>
+        <v>0.009538257446933313</v>
       </c>
     </row>
     <row r="35">
@@ -2758,19 +2758,19 @@
         <v>4290</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1121</v>
+        <v>1166</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10199</v>
+        <v>10319</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0126975795288316</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003318886307103051</v>
+        <v>0.003450620766044104</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03018488424920308</v>
+        <v>0.03054017594840113</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2779,19 +2779,19 @@
         <v>3276</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7855</v>
+        <v>8150</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.01114667371496187</v>
+        <v>0.01114667371496186</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002646349641959093</v>
+        <v>0.002735314982295185</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02672399328655432</v>
+        <v>0.02773031495873071</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -2800,19 +2800,19 @@
         <v>7566</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14473</v>
+        <v>14984</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01197607995898065</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005431772027044183</v>
+        <v>0.005429957918651159</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02290717881562623</v>
+        <v>0.02371633433958091</v>
       </c>
     </row>
     <row r="36">
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7898</v>
+        <v>7914</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006809982752859672</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02337659070160192</v>
+        <v>0.02342415787748526</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -2850,19 +2850,19 @@
         <v>2331</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6212</v>
+        <v>6830</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007930676427608427</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002465293455831298</v>
+        <v>0.002500675107235214</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02113671205467971</v>
+        <v>0.02323895359427346</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -2871,19 +2871,19 @@
         <v>4632</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1481</v>
+        <v>1597</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10103</v>
+        <v>10694</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007331342591113407</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002344846582390666</v>
+        <v>0.002528154554510486</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01599077154358886</v>
+        <v>0.01692619071634562</v>
       </c>
     </row>
     <row r="37">
@@ -2900,19 +2900,19 @@
         <v>3886</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9710</v>
+        <v>9717</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01150106632772255</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002785292230057873</v>
+        <v>0.002731952563327482</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02873955524630316</v>
+        <v>0.028757820299054</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -2921,19 +2921,19 @@
         <v>12161</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6390</v>
+        <v>6811</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19305</v>
+        <v>19451</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.0413744495583933</v>
+        <v>0.04137444955839329</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02173929753773243</v>
+        <v>0.02317389850757532</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06568092918992428</v>
+        <v>0.06617903293314041</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>19</v>
@@ -2942,19 +2942,19 @@
         <v>16047</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>9307</v>
+        <v>9702</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>23949</v>
+        <v>24497</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.02539851448876976</v>
+        <v>0.02539851448876977</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01473127900554689</v>
+        <v>0.01535578000022365</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03790695823327578</v>
+        <v>0.03877369395720316</v>
       </c>
     </row>
     <row r="38">
@@ -2971,19 +2971,19 @@
         <v>9472</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3617</v>
+        <v>4382</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>19218</v>
+        <v>20021</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02803258677154696</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01070544398944206</v>
+        <v>0.01297007531969633</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05688017587357168</v>
+        <v>0.05925629975338664</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -2992,19 +2992,19 @@
         <v>4365</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1432</v>
+        <v>1953</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>8787</v>
+        <v>9406</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01485275416917965</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.004871324265049051</v>
+        <v>0.006644935410644755</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02989652630224214</v>
+        <v>0.03200266036211832</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>13</v>
@@ -3013,19 +3013,19 @@
         <v>13837</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7386</v>
+        <v>7709</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>24330</v>
+        <v>25538</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02190117410401137</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01169075202094181</v>
+        <v>0.01220232771499507</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03851016784316847</v>
+        <v>0.04042160216732063</v>
       </c>
     </row>
     <row r="39">
@@ -3042,19 +3042,19 @@
         <v>23036</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>14683</v>
+        <v>13205</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>36140</v>
+        <v>35169</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06817910175365917</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04345668911342184</v>
+        <v>0.03908195679037544</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1069625063292068</v>
+        <v>0.1040889562266653</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>29</v>
@@ -3063,19 +3063,19 @@
         <v>20223</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>13680</v>
+        <v>13353</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>28389</v>
+        <v>28493</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.06880600445823706</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04654390574942645</v>
+        <v>0.04543042983616531</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09658773891289343</v>
+        <v>0.09694293644076063</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>47</v>
@@ -3084,19 +3084,19 @@
         <v>43259</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>31382</v>
+        <v>32424</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>58208</v>
+        <v>59773</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0684707442426139</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.04967156038038844</v>
+        <v>0.05132024554095802</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.09213144624415481</v>
+        <v>0.09460898205618043</v>
       </c>
     </row>
     <row r="40">
@@ -3113,19 +3113,19 @@
         <v>39879</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>28276</v>
+        <v>30136</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>51977</v>
+        <v>53108</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1180286249752412</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08368881205873881</v>
+        <v>0.08919169867232696</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1538353154095168</v>
+        <v>0.1571812109506089</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>51</v>
@@ -3134,19 +3134,19 @@
         <v>32877</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>24974</v>
+        <v>23927</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>42523</v>
+        <v>41902</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.111857151661515</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08496949166584952</v>
+        <v>0.08140709736105504</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1446758400671283</v>
+        <v>0.1425627832870887</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>92</v>
@@ -3155,19 +3155,19 @@
         <v>72756</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>58081</v>
+        <v>58438</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>89855</v>
+        <v>87670</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1151575832257169</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09193017345099574</v>
+        <v>0.09249557768675423</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1422231192629927</v>
+        <v>0.138764659350548</v>
       </c>
     </row>
     <row r="41">
@@ -3184,19 +3184,19 @@
         <v>242534</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>222022</v>
+        <v>223026</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>258456</v>
+        <v>257179</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.7178210240879875</v>
+        <v>0.7178210240879876</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.6571133613817308</v>
+        <v>0.6600841141244256</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7649451242751186</v>
+        <v>0.7611648225437915</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>291</v>
@@ -3205,19 +3205,19 @@
         <v>210114</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>197331</v>
+        <v>195936</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>223075</v>
+        <v>221456</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.714876718956983</v>
+        <v>0.7148767189569829</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.6713847035276731</v>
+        <v>0.666636771397822</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7589740112114441</v>
+        <v>0.7534630539159143</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>503</v>
@@ -3226,19 +3226,19 @@
         <v>452647</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>429755</v>
+        <v>429203</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>474777</v>
+        <v>472578</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7164512988174186</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.6802164331254991</v>
+        <v>0.6793432843062803</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7514781163457687</v>
+        <v>0.747996746662649</v>
       </c>
     </row>
     <row r="42">
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7012</v>
+        <v>7856</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.006506038649772838</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01996015855971675</v>
+        <v>0.02236297004842444</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>4</v>
@@ -3351,19 +3351,19 @@
         <v>2605</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7124</v>
+        <v>6280</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.007359190097914137</v>
+        <v>0.007359190097914138</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.002047944699594832</v>
+        <v>0.001993388415921986</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02012311231698452</v>
+        <v>0.01773892413314306</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>6</v>
@@ -3372,19 +3372,19 @@
         <v>4891</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1873</v>
+        <v>1591</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>10303</v>
+        <v>10095</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.006934256055983336</v>
+        <v>0.006934256055983338</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.002655440234991379</v>
+        <v>0.0022560686636604</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01460745226922828</v>
+        <v>0.01431244970770512</v>
       </c>
     </row>
     <row r="44">
@@ -3401,19 +3401,19 @@
         <v>4516</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1398</v>
+        <v>1091</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11378</v>
+        <v>10493</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01285517814173464</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.00398028091544293</v>
+        <v>0.003104731837327992</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03238756538321531</v>
+        <v>0.02986890268360116</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -3422,19 +3422,19 @@
         <v>4183</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9137</v>
+        <v>8429</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01181667575816653</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004051046773398317</v>
+        <v>0.004017235862333691</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02580942372774412</v>
+        <v>0.02381092576219717</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -3443,19 +3443,19 @@
         <v>8699</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4628</v>
+        <v>4538</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16314</v>
+        <v>16345</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01233392860508578</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006561688548606326</v>
+        <v>0.006433861337302922</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02313085131571981</v>
+        <v>0.02317419744718494</v>
       </c>
     </row>
     <row r="45">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6039</v>
+        <v>5951</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.003383300260534047</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01719016533267211</v>
+        <v>0.01693927237195618</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4247</v>
+        <v>4491</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.00324111003476638</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01199676259915811</v>
+        <v>0.01268479079680274</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>3</v>
@@ -3564,16 +3564,16 @@
         <v>453</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>7222</v>
+        <v>7663</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.00331193153719733</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0006427250492986957</v>
+        <v>0.0006418236971793334</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01023922482531853</v>
+        <v>0.01086418654214469</v>
       </c>
     </row>
     <row r="47">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3650</v>
+        <v>3628</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.002041833147730075</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01030997980103748</v>
+        <v>0.01024830598492206</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3670</v>
+        <v>4069</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.001024845584380678</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.005203844064497341</v>
+        <v>0.005769853541118202</v>
       </c>
     </row>
     <row r="48">
@@ -3653,19 +3653,19 @@
         <v>4716</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11643</v>
+        <v>11916</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01342571505047707</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.003231946691364472</v>
+        <v>0.003247875236182075</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03314316439079779</v>
+        <v>0.03391971913364778</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>8</v>
@@ -3674,19 +3674,19 @@
         <v>5255</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2226</v>
+        <v>2509</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>9982</v>
+        <v>10201</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.0148452463152045</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.006286942928732114</v>
+        <v>0.007087329482992315</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02819843593520933</v>
+        <v>0.02881478123521991</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>12</v>
@@ -3695,19 +3695,19 @@
         <v>9972</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>5526</v>
+        <v>5419</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>17679</v>
+        <v>17783</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01413821222497124</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.007834249311143592</v>
+        <v>0.007682649644188872</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02506648055062402</v>
+        <v>0.02521362451380309</v>
       </c>
     </row>
     <row r="49">
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>6903</v>
+        <v>5178</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.004833131212299957</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01964887360974931</v>
+        <v>0.01473908553652048</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>5297</v>
+        <v>5667</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.004458144381695471</v>
+        <v>0.004458144381695472</v>
       </c>
       <c r="O49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01496407920215982</v>
+        <v>0.01600889520191864</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4</v>
@@ -3766,19 +3766,19 @@
         <v>3276</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>7484</v>
+        <v>7605</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.004644916226186548</v>
+        <v>0.004644916226186549</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001207183951972265</v>
+        <v>0.001211982877650187</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01061038307819539</v>
+        <v>0.0107822401564142</v>
       </c>
     </row>
     <row r="50">
@@ -3795,19 +3795,19 @@
         <v>8925</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3711</v>
+        <v>3901</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>17355</v>
+        <v>18535</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02540528803623204</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01056422827025096</v>
+        <v>0.01110522908779487</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04940252539933317</v>
+        <v>0.05276239393825889</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>14</v>
@@ -3816,19 +3816,19 @@
         <v>9881</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>5530</v>
+        <v>5594</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>16432</v>
+        <v>16653</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02791151263657778</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01562106140649488</v>
+        <v>0.01580175930351102</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04641671667777353</v>
+        <v>0.04704139831568886</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>21</v>
@@ -3837,19 +3837,19 @@
         <v>18806</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>12031</v>
+        <v>11808</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>29531</v>
+        <v>28028</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.02666322295514839</v>
+        <v>0.0266632229551484</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01705801198262596</v>
+        <v>0.01674198952758047</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04187040126727538</v>
+        <v>0.03973952237563316</v>
       </c>
     </row>
     <row r="51">
@@ -3866,19 +3866,19 @@
         <v>7413</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>3416</v>
+        <v>3620</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>13867</v>
+        <v>15064</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.02110305704974282</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.00972474285043759</v>
+        <v>0.01030459033217367</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03947503724927331</v>
+        <v>0.04288167242272572</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>5</v>
@@ -3887,19 +3887,19 @@
         <v>3166</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>7473</v>
+        <v>6551</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.008943127344258277</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.003345868381303139</v>
+        <v>0.003186334012322768</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.02110859634328558</v>
+        <v>0.01850635776418364</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>13</v>
@@ -3908,19 +3908,19 @@
         <v>10579</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>6184</v>
+        <v>5898</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>18324</v>
+        <v>18087</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.01499969337436149</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.00876741991539271</v>
+        <v>0.008361908456544899</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.02598083898928913</v>
+        <v>0.02564462432541874</v>
       </c>
     </row>
     <row r="52">
@@ -3937,19 +3937,19 @@
         <v>9163</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>4266</v>
+        <v>4798</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>16847</v>
+        <v>16650</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02608265509567328</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01214392646219154</v>
+        <v>0.01365921370839414</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.04795770029696719</v>
+        <v>0.04739700182226882</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>31</v>
@@ -3958,19 +3958,19 @@
         <v>19017</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>12906</v>
+        <v>13174</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>26080</v>
+        <v>26266</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.0537202316691292</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.03645755215114498</v>
+        <v>0.03721406955254269</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.07367146409019715</v>
+        <v>0.07419629322530312</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>40</v>
@@ -3979,19 +3979,19 @@
         <v>28180</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>20534</v>
+        <v>20487</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>39267</v>
+        <v>39651</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.03995462516618443</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.02911369462371094</v>
+        <v>0.02904765623106923</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.05567447486143817</v>
+        <v>0.05621917975500114</v>
       </c>
     </row>
     <row r="53">
@@ -4008,19 +4008,19 @@
         <v>51398</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>39345</v>
+        <v>38619</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>67134</v>
+        <v>65778</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.1463091164622449</v>
+        <v>0.1463091164622448</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1120001424207767</v>
+        <v>0.1099326125761429</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1911047125729168</v>
+        <v>0.1872458146664665</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>64</v>
@@ -4029,19 +4029,19 @@
         <v>36031</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>28352</v>
+        <v>27872</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>45435</v>
+        <v>45543</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.101780255785991</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.08008721531560827</v>
+        <v>0.07873187084712308</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1283452323272795</v>
+        <v>0.1286492492581911</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>119</v>
@@ -4050,19 +4050,19 @@
         <v>87429</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>71503</v>
+        <v>73169</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>103359</v>
+        <v>104619</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.1239590011786849</v>
+        <v>0.123959001178685</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1013787112188993</v>
+        <v>0.1037414046690849</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1465458341919902</v>
+        <v>0.148332570176819</v>
       </c>
     </row>
     <row r="54">
@@ -4079,19 +4079,19 @@
         <v>259991</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>242275</v>
+        <v>243324</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>275574</v>
+        <v>276749</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.7400965200412885</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.6896637726644681</v>
+        <v>0.6926510061072688</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.7844542187066998</v>
+        <v>0.7877974463187035</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>422</v>
@@ -4100,19 +4100,19 @@
         <v>270421</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>256697</v>
+        <v>256332</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>281529</v>
+        <v>281793</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.7638826728285667</v>
+        <v>0.7638826728285669</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.7251156624338397</v>
+        <v>0.7240863830101688</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.7952608799176294</v>
+        <v>0.7960066643075434</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>671</v>
@@ -4121,19 +4121,19 @@
         <v>530412</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>508254</v>
+        <v>509928</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>550946</v>
+        <v>552039</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.7520353670918158</v>
+        <v>0.752035367091816</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.720619560143435</v>
+        <v>0.7229918280726506</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.7811483790264392</v>
+        <v>0.782698456594471</v>
       </c>
     </row>
     <row r="55">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>4827</v>
+        <v>5422</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.002835773790446105</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01448663980580001</v>
+        <v>0.01627282452321423</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>4849</v>
+        <v>4194</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.004242028299388492</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01486185490637456</v>
+        <v>0.01285492206333046</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>3</v>
@@ -4270,16 +4270,16 @@
         <v>685</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>6363</v>
+        <v>6319</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.003531502536829975</v>
+        <v>0.003531502536829976</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.001039261035351897</v>
+        <v>0.001038754471050186</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.009648919676805333</v>
+        <v>0.009582596294134573</v>
       </c>
     </row>
     <row r="57">
@@ -4296,19 +4296,19 @@
         <v>4510</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1127</v>
+        <v>961</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>10601</v>
+        <v>11290</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.01353678439117647</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.003383276495792027</v>
+        <v>0.002884695421111792</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.03181699187556279</v>
+        <v>0.03388671126145378</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>2</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>4806</v>
+        <v>4807</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.004221068185718527</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.01473044711860519</v>
+        <v>0.01473576134030149</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>6</v>
@@ -4338,19 +4338,19 @@
         <v>5887</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>2235</v>
+        <v>2349</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>12478</v>
+        <v>13433</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.008927937616942454</v>
+        <v>0.008927937616942456</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.003389478341617903</v>
+        <v>0.00356229160544925</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01892273752723789</v>
+        <v>0.02037143673470239</v>
       </c>
     </row>
     <row r="58">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>3926</v>
+        <v>3600</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.002190565131834148</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.01203365166989257</v>
+        <v>0.01103451982690838</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1</v>
@@ -4404,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>3594</v>
+        <v>3479</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.001083757686358911</v>
+        <v>0.001083757686358912</v>
       </c>
       <c r="V58" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.005450561838288731</v>
+        <v>0.005275385036712086</v>
       </c>
     </row>
     <row r="59">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>5030</v>
+        <v>5346</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.003011128576196881</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.01509735267374421</v>
+        <v>0.01604611174864974</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>3011</v>
+        <v>3535</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.002167999080944578</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.009230053242158484</v>
+        <v>0.01083678097099935</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>2</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>6718</v>
+        <v>6098</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.002593999654624703</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01018780839027015</v>
+        <v>0.009247082773446037</v>
       </c>
     </row>
     <row r="60">
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>3437</v>
+        <v>3931</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002093659228348453</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.01053556588320864</v>
+        <v>0.01205082891593075</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>1</v>
@@ -4538,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>2803</v>
+        <v>3403</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.001035814570571141</v>
+        <v>0.001035814570571142</v>
       </c>
       <c r="V60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.004250983306370703</v>
+        <v>0.005160926580477609</v>
       </c>
     </row>
     <row r="61">
@@ -4564,19 +4564,19 @@
         <v>4278</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>926</v>
+        <v>1017</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>10831</v>
+        <v>10977</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.01283964212388886</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.00277953431297445</v>
+        <v>0.003052078868333523</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.03250765519213072</v>
+        <v>0.032947393983934</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>9</v>
@@ -4585,19 +4585,19 @@
         <v>5681</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>3006</v>
+        <v>2630</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>10540</v>
+        <v>10415</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01741318093693504</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.009215180629903074</v>
+        <v>0.008061236180902036</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.03230663044672242</v>
+        <v>0.03192422850469252</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>13</v>
@@ -4606,19 +4606,19 @@
         <v>9959</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>5514</v>
+        <v>5357</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>17539</v>
+        <v>17920</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.01510234948212636</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.008361731725858391</v>
+        <v>0.008123826966012935</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.02659740857279463</v>
+        <v>0.02717563714167815</v>
       </c>
     </row>
     <row r="62">
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>7296</v>
+        <v>7550</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.003860927966012078</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.02189805468755691</v>
+        <v>0.02266100271102757</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>4</v>
@@ -4656,19 +4656,19 @@
         <v>2574</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>5854</v>
+        <v>5896</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.00789045796208954</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.00209541496905642</v>
+        <v>0.002078684920130442</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.01794309255954933</v>
+        <v>0.01807294350848905</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>5</v>
@@ -4677,19 +4677,19 @@
         <v>3861</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>8917</v>
+        <v>9453</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.005854493024726516</v>
+        <v>0.005854493024726517</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.001923369956903571</v>
+        <v>0.001904276124229089</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.01352235941045633</v>
+        <v>0.01433547391358899</v>
       </c>
     </row>
     <row r="63">
@@ -4706,19 +4706,19 @@
         <v>3041</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>8427</v>
+        <v>7888</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.009125882140505871</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.002169780826011737</v>
+        <v>0.002154805563515505</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.02529186083488387</v>
+        <v>0.02367356584797308</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>10</v>
@@ -4727,19 +4727,19 @@
         <v>6741</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>3483</v>
+        <v>3389</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>12615</v>
+        <v>12037</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.02066210600203671</v>
+        <v>0.02066210600203672</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01067672281795809</v>
+        <v>0.01038667456278672</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03866674959002492</v>
+        <v>0.03689501535008093</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>13</v>
@@ -4748,19 +4748,19 @@
         <v>9781</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>5197</v>
+        <v>5271</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>16504</v>
+        <v>16013</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.01483330033127333</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.007881673745673928</v>
+        <v>0.007993522054528799</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.02502753633561785</v>
+        <v>0.02428286793188478</v>
       </c>
     </row>
     <row r="64">
@@ -4777,19 +4777,19 @@
         <v>7318</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>2890</v>
+        <v>3420</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>15026</v>
+        <v>16075</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.02196400345543614</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.008675329429827424</v>
+        <v>0.01026581601503853</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.04509743074842539</v>
+        <v>0.04824777166918968</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>8</v>
@@ -4798,19 +4798,19 @@
         <v>4887</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>2238</v>
+        <v>2373</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>9583</v>
+        <v>9195</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.01498018920321831</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.006858485375888543</v>
+        <v>0.007272404103228594</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.02937502017910508</v>
+        <v>0.02818472069019435</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>15</v>
@@ -4819,19 +4819,19 @@
         <v>12205</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>7240</v>
+        <v>7112</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>21095</v>
+        <v>21457</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.01850883918483227</v>
+        <v>0.01850883918483228</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.01097874223732991</v>
+        <v>0.0107855808085763</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.03198928896931055</v>
+        <v>0.03253860185832002</v>
       </c>
     </row>
     <row r="65">
@@ -4848,19 +4848,19 @@
         <v>15211</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>8400</v>
+        <v>8379</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>24552</v>
+        <v>25586</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.04565434811471226</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.02521048266943135</v>
+        <v>0.02514864408848799</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.07368985988627155</v>
+        <v>0.07679150625496513</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>35</v>
@@ -4869,19 +4869,19 @@
         <v>20758</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>15008</v>
+        <v>14985</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>28066</v>
+        <v>28514</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.06362788181303487</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.04600288090809794</v>
+        <v>0.04593129419939709</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.08602872360923142</v>
+        <v>0.0874022116723423</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>48</v>
@@ -4890,19 +4890,19 @@
         <v>35969</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>26178</v>
+        <v>26256</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>47917</v>
+        <v>49919</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.0545465536070358</v>
+        <v>0.05454655360703581</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.03969848581115729</v>
+        <v>0.03981663267686244</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.07266551734575999</v>
+        <v>0.07570068344784145</v>
       </c>
     </row>
     <row r="66">
@@ -4919,19 +4919,19 @@
         <v>33384</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>24885</v>
+        <v>24705</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>44771</v>
+        <v>43689</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1001968872725264</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.07468756920323291</v>
+        <v>0.0741484586064643</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1343737992050944</v>
+        <v>0.1311264561362846</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>68</v>
@@ -4940,19 +4940,19 @@
         <v>35007</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>27389</v>
+        <v>27379</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>43985</v>
+        <v>44586</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>0.107302723963069</v>
+        <v>0.1073027239630689</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.08395234629772615</v>
+        <v>0.08392103760426307</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1348224433156467</v>
+        <v>0.1366662360034843</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>110</v>
@@ -4961,19 +4961,19 @@
         <v>68391</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>56537</v>
+        <v>56762</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>82370</v>
+        <v>82646</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.10371242078462</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.08573741398248326</v>
+        <v>0.08607753101332395</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1249117718560526</v>
+        <v>0.1253299972490962</v>
       </c>
     </row>
     <row r="67">
@@ -4990,19 +4990,19 @@
         <v>262206</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>247106</v>
+        <v>246998</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>275829</v>
+        <v>275607</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.786974622169099</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.7416551137747366</v>
+        <v>0.7413316410028405</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.8278620792886487</v>
+        <v>0.8271975502338264</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>403</v>
@@ -5011,19 +5011,19 @@
         <v>245729</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>234244</v>
+        <v>233584</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>258054</v>
+        <v>257827</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.7532081401933823</v>
+        <v>0.7532081401933822</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.7180051797098822</v>
+        <v>0.7159819424962754</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.7909856441693699</v>
+        <v>0.7902912422427998</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>691</v>
@@ -5032,19 +5032,19 @@
         <v>507935</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>488647</v>
+        <v>487581</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>526031</v>
+        <v>526112</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.7702690315200584</v>
+        <v>0.7702690315200587</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.7410190773854599</v>
+        <v>0.7394025837923318</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.7977123590432079</v>
+        <v>0.7978339818797319</v>
       </c>
     </row>
     <row r="68">
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>5249</v>
+        <v>5888</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.007989825687498987</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.0244458384929948</v>
+        <v>0.02742259761887598</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>4620</v>
+        <v>4625</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.005979514183191012</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.02089613245081224</v>
+        <v>0.0209181495757211</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>4</v>
@@ -5178,19 +5178,19 @@
         <v>3038</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>7537</v>
+        <v>7680</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.006969998191580127</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.001989956170848994</v>
+        <v>0.001952181061299064</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.0172934177895809</v>
+        <v>0.01762289410826931</v>
       </c>
     </row>
     <row r="70">
@@ -5207,19 +5207,19 @@
         <v>3148</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1012</v>
+        <v>968</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>8917</v>
+        <v>7804</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.01466236233897416</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.004712411159917974</v>
+        <v>0.004506698951710095</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.0415276317013436</v>
+        <v>0.03634553287897679</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>1</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>2108</v>
+        <v>2500</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.0018866893760814</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.009536360339535876</v>
+        <v>0.01130824140048041</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>5</v>
@@ -5249,19 +5249,19 @@
         <v>3566</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>1120</v>
+        <v>1388</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>8170</v>
+        <v>8606</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.008181285879676738</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.002570007598244758</v>
+        <v>0.003184062937453244</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.01874545083080029</v>
+        <v>0.01974725201534191</v>
       </c>
     </row>
     <row r="71">
@@ -5419,19 +5419,19 @@
         <v>2609</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>7863</v>
+        <v>7638</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.01215234448130608</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.003856780771743263</v>
+        <v>0.003827642202354284</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.03661856031204037</v>
+        <v>0.03557008394719624</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>5</v>
@@ -5440,19 +5440,19 @@
         <v>2362</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>5528</v>
+        <v>5373</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.01068493807258474</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.003843094493568179</v>
+        <v>0.003802881188748655</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.02500182209344953</v>
+        <v>0.02430408121870676</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>8</v>
@@ -5461,19 +5461,19 @@
         <v>4972</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>2418</v>
+        <v>2030</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>9869</v>
+        <v>10437</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.01140793178700738</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.005547831353191202</v>
+        <v>0.004657436228436623</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.02264538200889167</v>
+        <v>0.02394931042969252</v>
       </c>
     </row>
     <row r="75">
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>5522</v>
+        <v>6203</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.008626720435304359</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.02571683099708051</v>
+        <v>0.02888803576382574</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>5</v>
@@ -5511,19 +5511,19 @@
         <v>2724</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>960</v>
+        <v>1012</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>6444</v>
+        <v>6103</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.01232131680896681</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.004343746535487398</v>
+        <v>0.004575994852681176</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.02914772972507685</v>
+        <v>0.02760511722039214</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>7</v>
@@ -5532,19 +5532,19 @@
         <v>4576</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>1845</v>
+        <v>2074</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>9152</v>
+        <v>9664</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.01050098268775071</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.004233191569069127</v>
+        <v>0.004759740643309173</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.02100027820429947</v>
+        <v>0.02217441764071475</v>
       </c>
     </row>
     <row r="76">
@@ -5561,19 +5561,19 @@
         <v>8174</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>3668</v>
+        <v>4317</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>14269</v>
+        <v>14989</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.03806680766394784</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.01708235965942691</v>
+        <v>0.02010569346034367</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.06645410168426368</v>
+        <v>0.06980564944871746</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>13</v>
@@ -5582,19 +5582,19 @@
         <v>6494</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>3568</v>
+        <v>3635</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>10891</v>
+        <v>10898</v>
       </c>
       <c r="N76" s="6" t="n">
-        <v>0.02937256458707432</v>
+        <v>0.02937256458707431</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.01613898129664047</v>
+        <v>0.01644006775197166</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.04926157637193236</v>
+        <v>0.04929087666488167</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>23</v>
@@ -5603,19 +5603,19 @@
         <v>14668</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>9477</v>
+        <v>9775</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>21646</v>
+        <v>21881</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.03365623341861463</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.02174457210364888</v>
+        <v>0.02242938730468981</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.04966822332583599</v>
+        <v>0.05020681744221368</v>
       </c>
     </row>
     <row r="77">
@@ -5632,19 +5632,19 @@
         <v>4304</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1620</v>
+        <v>1629</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>9463</v>
+        <v>9273</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.02004518038236935</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.007545984012822133</v>
+        <v>0.007585339461866084</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.04406844937523876</v>
+        <v>0.04318692323427382</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>7</v>
@@ -5653,19 +5653,19 @@
         <v>3423</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>1430</v>
+        <v>1443</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>7102</v>
+        <v>6702</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.0154826141428157</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.006470156689540081</v>
+        <v>0.006525352333118691</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.03212388348542789</v>
+        <v>0.03031158117210061</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>12</v>
@@ -5674,19 +5674,19 @@
         <v>7727</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>4226</v>
+        <v>4246</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>13247</v>
+        <v>14486</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.01773059854115879</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.009696462945335223</v>
+        <v>0.009742384276841941</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.03039670169504544</v>
+        <v>0.03323835224325263</v>
       </c>
     </row>
     <row r="78">
@@ -5703,19 +5703,19 @@
         <v>8275</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>4068</v>
+        <v>4598</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>14633</v>
+        <v>14153</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.03853651714324392</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.01894312673590501</v>
+        <v>0.02141178394754816</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.06814630088805218</v>
+        <v>0.06590988915355911</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>13</v>
@@ -5724,19 +5724,19 @@
         <v>6742</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>3433</v>
+        <v>3571</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>11092</v>
+        <v>10510</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.03049362124697623</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.01552832727890068</v>
+        <v>0.01615055625225145</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.05017066891394523</v>
+        <v>0.04753803016869378</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>24</v>
@@ -5745,19 +5745,19 @@
         <v>15017</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>9360</v>
+        <v>9219</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>22285</v>
+        <v>21425</v>
       </c>
       <c r="U78" s="6" t="n">
-        <v>0.0344563701788309</v>
+        <v>0.03445637017883089</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.02147804964255061</v>
+        <v>0.02115441922826127</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.05113516317590809</v>
+        <v>0.04916098041575631</v>
       </c>
     </row>
     <row r="79">
@@ -5774,19 +5774,19 @@
         <v>20170</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>14579</v>
+        <v>14346</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>27906</v>
+        <v>27683</v>
       </c>
       <c r="G79" s="6" t="n">
-        <v>0.09393449461982768</v>
+        <v>0.09393449461982771</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.0678962782095895</v>
+        <v>0.0668093832430693</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.1299617463998096</v>
+        <v>0.128922397255365</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>38</v>
@@ -5795,19 +5795,19 @@
         <v>17366</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>12592</v>
+        <v>12945</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>23678</v>
+        <v>24369</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.07854700737394305</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.05695423917096842</v>
+        <v>0.0585532352050551</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.1070967380985076</v>
+        <v>0.1102236387934513</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>71</v>
@@ -5816,19 +5816,19 @@
         <v>37536</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>29647</v>
+        <v>29641</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>46096</v>
+        <v>46532</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.08612844936125674</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.06802624880486664</v>
+        <v>0.068012036371894</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.1057705695950467</v>
+        <v>0.1067709268222646</v>
       </c>
     </row>
     <row r="80">
@@ -5845,19 +5845,19 @@
         <v>164478</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>153267</v>
+        <v>153367</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>174702</v>
+        <v>174170</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.7659857472475275</v>
+        <v>0.7659857472475277</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.7137758357453021</v>
+        <v>0.7142401191239847</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.8136013717940014</v>
+        <v>0.8111237469906354</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>336</v>
@@ -5866,19 +5866,19 @@
         <v>180238</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>172418</v>
+        <v>171602</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>187607</v>
+        <v>188198</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.8152317342083668</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.7798626375837869</v>
+        <v>0.7761689129195029</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.8485629645829064</v>
+        <v>0.8512357171598671</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>568</v>
@@ -5887,19 +5887,19 @@
         <v>344716</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>331770</v>
+        <v>331628</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>357370</v>
+        <v>357771</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.790968149954124</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.7612626713611497</v>
+        <v>0.7609370309427412</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.820003642378088</v>
+        <v>0.820924859702433</v>
       </c>
     </row>
     <row r="81">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>2966</v>
+        <v>2798</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.003654330945399034</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.01810576119368925</v>
+        <v>0.01707692288967258</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>1</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.002400736576772457</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.01347187446525959</v>
+        <v>0.01346369134957984</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>2</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>4221</v>
+        <v>4538</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.002889654890299287</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.01004963315222453</v>
+        <v>0.01080407436118654</v>
       </c>
     </row>
     <row r="83">
@@ -6062,19 +6062,19 @@
         <v>2515</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>6677</v>
+        <v>6927</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>0.01535430363875218</v>
+        <v>0.01535430363875219</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.004830682125104628</v>
+        <v>0.004791530048622713</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.040760505985698</v>
+        <v>0.04228530356368376</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>3</v>
@@ -6083,19 +6083,19 @@
         <v>1688</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>4617</v>
+        <v>4525</v>
       </c>
       <c r="N83" s="6" t="n">
-        <v>0.006587346794974888</v>
+        <v>0.006587346794974887</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.001489583005081709</v>
+        <v>0.001482529315201104</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01801905951084778</v>
+        <v>0.01766112794231969</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>6</v>
@@ -6104,19 +6104,19 @@
         <v>4203</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>1686</v>
+        <v>1548</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>9101</v>
+        <v>8737</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.01000657542434258</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.004013397881888385</v>
+        <v>0.003685541613914671</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.02166752597077469</v>
+        <v>0.02080104179089266</v>
       </c>
     </row>
     <row r="84">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>6555</v>
+        <v>5627</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>0.01140778404844417</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.04001598223839648</v>
+        <v>0.03434620112958614</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>3</v>
@@ -6295,19 +6295,19 @@
         <v>1449</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>4929</v>
+        <v>4307</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.005654770048960414</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.001557107644582373</v>
+        <v>0.001532944337849362</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.01923939850833236</v>
+        <v>0.01681126910524492</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>5</v>
@@ -6316,19 +6316,19 @@
         <v>3318</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>1046</v>
+        <v>1260</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>8013</v>
+        <v>8060</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.007898521275607567</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.002491116425695356</v>
+        <v>0.002998592585627823</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.01907611490561441</v>
+        <v>0.01918783729884794</v>
       </c>
     </row>
     <row r="88">
@@ -6348,16 +6348,16 @@
         <v>0</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>5550</v>
+        <v>5149</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.009686962051154503</v>
+        <v>0.009686962051154505</v>
       </c>
       <c r="H88" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.03387874410023733</v>
+        <v>0.03143196107418517</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>2</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>3941</v>
+        <v>3945</v>
       </c>
       <c r="N88" s="6" t="n">
         <v>0.004231808852722639</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.01538192671276829</v>
+        <v>0.01539800256902731</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>4</v>
@@ -6387,19 +6387,19 @@
         <v>2671</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>853</v>
+        <v>675</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>6592</v>
+        <v>7215</v>
       </c>
       <c r="U88" s="6" t="n">
-        <v>0.006359390444150712</v>
+        <v>0.006359390444150711</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.002029678286347702</v>
+        <v>0.001606861038459385</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.01569325665890896</v>
+        <v>0.01717616263211388</v>
       </c>
     </row>
     <row r="89">
@@ -6416,19 +6416,19 @@
         <v>5000</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>10504</v>
+        <v>10557</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.03052241419708135</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.01397854267465355</v>
+        <v>0.01399091559902696</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.0641174190707994</v>
+        <v>0.06444220768890807</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>3</v>
@@ -6437,19 +6437,19 @@
         <v>1209</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>3248</v>
+        <v>3200</v>
       </c>
       <c r="N89" s="6" t="n">
         <v>0.00471912258465591</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.001294407687965203</v>
+        <v>0.001293061268675892</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.01267835210749037</v>
+        <v>0.01249085055525697</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>9</v>
@@ -6458,19 +6458,19 @@
         <v>6209</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>2932</v>
+        <v>2830</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>11918</v>
+        <v>11711</v>
       </c>
       <c r="U89" s="6" t="n">
-        <v>0.01478274614130101</v>
+        <v>0.014782746141301</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.006980893107801949</v>
+        <v>0.006737225533787254</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.02837372132567891</v>
+        <v>0.02788142410992891</v>
       </c>
     </row>
     <row r="90">
@@ -6487,19 +6487,19 @@
         <v>3003</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>744</v>
+        <v>1106</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>7318</v>
+        <v>8604</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.01833168778155123</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.004544114293245783</v>
+        <v>0.006753358772653817</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.04467337363080518</v>
+        <v>0.05251830050462308</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.001818991587351486</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.009130341030260237</v>
+        <v>0.009145044697375185</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>5</v>
@@ -6529,19 +6529,19 @@
         <v>3469</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>1226</v>
+        <v>1362</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>7833</v>
+        <v>8074</v>
       </c>
       <c r="U90" s="6" t="n">
         <v>0.008259160574305478</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.002918564286294403</v>
+        <v>0.003243379213728817</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.01864829409103212</v>
+        <v>0.0192213264392819</v>
       </c>
     </row>
     <row r="91">
@@ -6558,19 +6558,19 @@
         <v>5556</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>10298</v>
+        <v>11137</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.03391811419673136</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.01629968835259047</v>
+        <v>0.01631498868171209</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.06286077430009254</v>
+        <v>0.06798448223242953</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>16</v>
@@ -6579,19 +6579,19 @@
         <v>7194</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>4442</v>
+        <v>4356</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>11697</v>
+        <v>11211</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0.02807834064217191</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.01733732000349273</v>
+        <v>0.01700064703287099</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.0456520966531221</v>
+        <v>0.04375429457423849</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>25</v>
@@ -6600,19 +6600,19 @@
         <v>12751</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>8370</v>
+        <v>8476</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>18761</v>
+        <v>18990</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.03035592923791671</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.01992709333715911</v>
+        <v>0.02017967793608967</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.04466459567244235</v>
+        <v>0.04521037363593826</v>
       </c>
     </row>
     <row r="92">
@@ -6629,19 +6629,19 @@
         <v>16645</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>11142</v>
+        <v>11178</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>22679</v>
+        <v>22848</v>
       </c>
       <c r="G92" s="6" t="n">
         <v>0.1016054338890937</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.06801071756048542</v>
+        <v>0.06823172658593697</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.1384413082490085</v>
+        <v>0.1394692747838632</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>45</v>
@@ -6650,19 +6650,19 @@
         <v>22385</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>16373</v>
+        <v>16244</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>30272</v>
+        <v>29657</v>
       </c>
       <c r="N92" s="6" t="n">
         <v>0.08736883705710639</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.06390180727698094</v>
+        <v>0.0633982250009381</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.1181478622630125</v>
+        <v>0.1157486935174617</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>73</v>
@@ -6671,19 +6671,19 @@
         <v>39030</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>31336</v>
+        <v>30546</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>49388</v>
+        <v>48161</v>
       </c>
       <c r="U92" s="6" t="n">
-        <v>0.09292129731670579</v>
+        <v>0.0929212973167058</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.07460396429738742</v>
+        <v>0.07272309667148388</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.1175793689114658</v>
+        <v>0.1146577908951967</v>
       </c>
     </row>
     <row r="93">
@@ -6700,19 +6700,19 @@
         <v>127046</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>117194</v>
+        <v>118431</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>134879</v>
+        <v>135602</v>
       </c>
       <c r="G93" s="6" t="n">
-        <v>0.7755189692517923</v>
+        <v>0.7755189692517925</v>
       </c>
       <c r="H93" s="6" t="n">
-        <v>0.7153850014895202</v>
+        <v>0.722933718396621</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.8233368732630461</v>
+        <v>0.8277493975979894</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>424</v>
@@ -6721,19 +6721,19 @@
         <v>220127</v>
       </c>
       <c r="L93" s="5" t="n">
-        <v>210749</v>
+        <v>210896</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>227279</v>
+        <v>227399</v>
       </c>
       <c r="N93" s="6" t="n">
         <v>0.859140045855284</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>0.8225389509767498</v>
+        <v>0.823110738630743</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.8870543976105789</v>
+        <v>0.8875217445318492</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>613</v>
@@ -6742,19 +6742,19 @@
         <v>347173</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>335481</v>
+        <v>335009</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>358857</v>
+        <v>358155</v>
       </c>
       <c r="U93" s="6" t="n">
-        <v>0.8265267246953711</v>
+        <v>0.826526724695371</v>
       </c>
       <c r="V93" s="6" t="n">
-        <v>0.7986917416181621</v>
+        <v>0.797568129858063</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.8543429515525452</v>
+        <v>0.8526723536871945</v>
       </c>
     </row>
     <row r="94">
@@ -6846,19 +6846,19 @@
         <v>13306</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>6897</v>
+        <v>7218</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>23407</v>
+        <v>23783</v>
       </c>
       <c r="G95" s="6" t="n">
-        <v>0.007387825162858147</v>
+        <v>0.007387825162858146</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.003829144030056767</v>
+        <v>0.004007551433352243</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.01299595774948259</v>
+        <v>0.01320463761378591</v>
       </c>
       <c r="J95" s="5" t="n">
         <v>14</v>
@@ -6867,19 +6867,19 @@
         <v>12294</v>
       </c>
       <c r="L95" s="5" t="n">
-        <v>6867</v>
+        <v>6831</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>24119</v>
+        <v>22642</v>
       </c>
       <c r="N95" s="6" t="n">
-        <v>0.006622281600875856</v>
+        <v>0.006622281600875857</v>
       </c>
       <c r="O95" s="6" t="n">
-        <v>0.003698793221948183</v>
+        <v>0.003679594422906465</v>
       </c>
       <c r="P95" s="6" t="n">
-        <v>0.01299166034241264</v>
+        <v>0.01219593635336467</v>
       </c>
       <c r="Q95" s="5" t="n">
         <v>26</v>
@@ -6888,19 +6888,19 @@
         <v>25600</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>16255</v>
+        <v>16184</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>37959</v>
+        <v>37377</v>
       </c>
       <c r="U95" s="6" t="n">
         <v>0.006999254996604597</v>
       </c>
       <c r="V95" s="6" t="n">
-        <v>0.004444344427126184</v>
+        <v>0.004424872009864023</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.01037816316498866</v>
+        <v>0.01021913008351925</v>
       </c>
     </row>
     <row r="96">
@@ -6917,19 +6917,19 @@
         <v>25864</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>16143</v>
+        <v>16765</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>43679</v>
+        <v>41710</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>0.01436055890113442</v>
+        <v>0.01436055890113441</v>
       </c>
       <c r="H96" s="6" t="n">
-        <v>0.008962909857172822</v>
+        <v>0.009308266036869616</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.0242518061292316</v>
+        <v>0.02315864881784567</v>
       </c>
       <c r="J96" s="5" t="n">
         <v>22</v>
@@ -6938,19 +6938,19 @@
         <v>17446</v>
       </c>
       <c r="L96" s="5" t="n">
-        <v>11501</v>
+        <v>10855</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>26846</v>
+        <v>26222</v>
       </c>
       <c r="N96" s="6" t="n">
-        <v>0.009397495455906008</v>
+        <v>0.009397495455906006</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>0.006195095758241243</v>
+        <v>0.00584685574077407</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>0.0144607623801467</v>
+        <v>0.01412460551335726</v>
       </c>
       <c r="Q96" s="5" t="n">
         <v>43</v>
@@ -6959,19 +6959,19 @@
         <v>43311</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>30291</v>
+        <v>30764</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>59735</v>
+        <v>62697</v>
       </c>
       <c r="U96" s="6" t="n">
-        <v>0.01184143590956267</v>
+        <v>0.01184143590956266</v>
       </c>
       <c r="V96" s="6" t="n">
-        <v>0.008281850485999959</v>
+        <v>0.00841109796494755</v>
       </c>
       <c r="W96" s="6" t="n">
-        <v>0.01633183953601186</v>
+        <v>0.01714176754422093</v>
       </c>
     </row>
     <row r="97">
@@ -7004,16 +7004,16 @@
         <v>0</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>3605</v>
+        <v>4299</v>
       </c>
       <c r="N97" s="6" t="n">
-        <v>0.0003849524490711442</v>
+        <v>0.0003849524490711441</v>
       </c>
       <c r="O97" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.001941919567649883</v>
+        <v>0.002315579962771117</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>1</v>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="U97" s="6" t="n">
         <v>0.0001953919339978018</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.0009765974814307807</v>
+        <v>0.0009776528890220453</v>
       </c>
     </row>
     <row r="98">
@@ -7051,19 +7051,19 @@
         <v>4952</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>1132</v>
+        <v>1191</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>12471</v>
+        <v>12501</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>0.002749719012353593</v>
+        <v>0.002749719012353592</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.0006285871995114084</v>
+        <v>0.0006609983191208529</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.006924188487997988</v>
+        <v>0.006940717145083245</v>
       </c>
       <c r="J98" s="5" t="n">
         <v>5</v>
@@ -7072,19 +7072,19 @@
         <v>3979</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>9614</v>
+        <v>9272</v>
       </c>
       <c r="N98" s="6" t="n">
         <v>0.002143153965493668</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0.0008739238416476267</v>
+        <v>0.0008766066287666221</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>0.005178744421662657</v>
+        <v>0.004994219284523739</v>
       </c>
       <c r="Q98" s="5" t="n">
         <v>9</v>
@@ -7093,19 +7093,19 @@
         <v>8931</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>4189</v>
+        <v>4173</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>17314</v>
+        <v>17620</v>
       </c>
       <c r="U98" s="6" t="n">
         <v>0.002441842239813501</v>
       </c>
       <c r="V98" s="6" t="n">
-        <v>0.001145202135773195</v>
+        <v>0.001140986045026201</v>
       </c>
       <c r="W98" s="6" t="n">
-        <v>0.004733651087663793</v>
+        <v>0.004817383698464197</v>
       </c>
     </row>
     <row r="99">
@@ -7135,19 +7135,19 @@
         <v>4047</v>
       </c>
       <c r="L99" s="5" t="n">
-        <v>1427</v>
+        <v>1468</v>
       </c>
       <c r="M99" s="5" t="n">
-        <v>9682</v>
+        <v>9090</v>
       </c>
       <c r="N99" s="6" t="n">
         <v>0.002179792776007293</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>0.0007687884124119722</v>
+        <v>0.0007907727327226135</v>
       </c>
       <c r="P99" s="6" t="n">
-        <v>0.005215403489923546</v>
+        <v>0.004896370811650737</v>
       </c>
       <c r="Q99" s="5" t="n">
         <v>5</v>
@@ -7156,19 +7156,19 @@
         <v>4047</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>1486</v>
+        <v>1439</v>
       </c>
       <c r="T99" s="5" t="n">
-        <v>9555</v>
+        <v>8819</v>
       </c>
       <c r="U99" s="6" t="n">
         <v>0.001106406589297443</v>
       </c>
       <c r="V99" s="6" t="n">
-        <v>0.0004063686808793631</v>
+        <v>0.0003934573964982785</v>
       </c>
       <c r="W99" s="6" t="n">
-        <v>0.002612378076311021</v>
+        <v>0.002411095274949275</v>
       </c>
     </row>
     <row r="100">
@@ -7185,19 +7185,19 @@
         <v>19827</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>10952</v>
+        <v>11202</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>31525</v>
+        <v>30294</v>
       </c>
       <c r="G100" s="6" t="n">
         <v>0.01100856623623347</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.006081025092462665</v>
+        <v>0.006219555706072443</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.017503164977914</v>
+        <v>0.01681979720478796</v>
       </c>
       <c r="J100" s="5" t="n">
         <v>31</v>
@@ -7206,19 +7206,19 @@
         <v>20531</v>
       </c>
       <c r="L100" s="5" t="n">
-        <v>13815</v>
+        <v>14323</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>30444</v>
+        <v>30004</v>
       </c>
       <c r="N100" s="6" t="n">
         <v>0.01105917736811745</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>0.007441414656848794</v>
+        <v>0.007714870154426316</v>
       </c>
       <c r="P100" s="6" t="n">
-        <v>0.01639868830700601</v>
+        <v>0.01616176997142525</v>
       </c>
       <c r="Q100" s="5" t="n">
         <v>49</v>
@@ -7227,19 +7227,19 @@
         <v>40358</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>29856</v>
+        <v>30002</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>54390</v>
+        <v>55182</v>
       </c>
       <c r="U100" s="6" t="n">
         <v>0.01103425514135536</v>
       </c>
       <c r="V100" s="6" t="n">
-        <v>0.008162937268201383</v>
+        <v>0.008202665286527208</v>
       </c>
       <c r="W100" s="6" t="n">
-        <v>0.01487051475432739</v>
+        <v>0.01508701607824651</v>
       </c>
     </row>
     <row r="101">
@@ -7256,19 +7256,19 @@
         <v>10347</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>5626</v>
+        <v>4946</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>19227</v>
+        <v>19462</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>0.005744760358256441</v>
+        <v>0.00574476035825644</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.003123737180875038</v>
+        <v>0.002745959721293928</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.01067539426578265</v>
+        <v>0.01080568211453425</v>
       </c>
       <c r="J101" s="5" t="n">
         <v>18</v>
@@ -7277,19 +7277,19 @@
         <v>12601</v>
       </c>
       <c r="L101" s="5" t="n">
-        <v>7285</v>
+        <v>7656</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>19552</v>
+        <v>19736</v>
       </c>
       <c r="N101" s="6" t="n">
-        <v>0.006787511513154146</v>
+        <v>0.006787511513154145</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>0.003923989494976064</v>
+        <v>0.004123738902010054</v>
       </c>
       <c r="P101" s="6" t="n">
-        <v>0.01053200645020601</v>
+        <v>0.01063084793372213</v>
       </c>
       <c r="Q101" s="5" t="n">
         <v>28</v>
@@ -7298,19 +7298,19 @@
         <v>22948</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>15299</v>
+        <v>15209</v>
       </c>
       <c r="T101" s="5" t="n">
-        <v>33606</v>
+        <v>32909</v>
       </c>
       <c r="U101" s="6" t="n">
         <v>0.006274033948606425</v>
       </c>
       <c r="V101" s="6" t="n">
-        <v>0.004182979047226372</v>
+        <v>0.004158234182362188</v>
       </c>
       <c r="W101" s="6" t="n">
-        <v>0.009188149646375808</v>
+        <v>0.008997437363480723</v>
       </c>
     </row>
     <row r="102">
@@ -7327,19 +7327,19 @@
         <v>46656</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>31640</v>
+        <v>31338</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>69353</v>
+        <v>68300</v>
       </c>
       <c r="G102" s="6" t="n">
-        <v>0.0259045542560978</v>
+        <v>0.02590455425609779</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.01756705076193396</v>
+        <v>0.01739983461176391</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.03850628951698325</v>
+        <v>0.03792153438576237</v>
       </c>
       <c r="J102" s="5" t="n">
         <v>63</v>
@@ -7348,19 +7348,19 @@
         <v>51646</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>38650</v>
+        <v>38754</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>69628</v>
+        <v>67778</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>0.02781932246952038</v>
+        <v>0.02781932246952037</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>0.02081877415051992</v>
+        <v>0.0208750369597019</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.03750562723080162</v>
+        <v>0.03650866400726548</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>99</v>
@@ -7369,19 +7369,19 @@
         <v>98302</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>76653</v>
+        <v>77995</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>127876</v>
+        <v>123621</v>
       </c>
       <c r="U102" s="6" t="n">
         <v>0.02687644121325548</v>
       </c>
       <c r="V102" s="6" t="n">
-        <v>0.02095741968128439</v>
+        <v>0.02132433989766605</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.03496203155426294</v>
+        <v>0.03379876192574351</v>
       </c>
     </row>
     <row r="103">
@@ -7398,19 +7398,19 @@
         <v>37958</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>26521</v>
+        <v>26223</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>55067</v>
+        <v>53651</v>
       </c>
       <c r="G103" s="6" t="n">
         <v>0.02107492335922345</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.01472531826333741</v>
+        <v>0.01455984409673719</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.030574655366949</v>
+        <v>0.0297882143562393</v>
       </c>
       <c r="J103" s="5" t="n">
         <v>32</v>
@@ -7419,19 +7419,19 @@
         <v>21671</v>
       </c>
       <c r="L103" s="5" t="n">
-        <v>14593</v>
+        <v>14901</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>30106</v>
+        <v>30828</v>
       </c>
       <c r="N103" s="6" t="n">
         <v>0.01167330234843548</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>0.007860583459418065</v>
+        <v>0.008026437478470266</v>
       </c>
       <c r="P103" s="6" t="n">
-        <v>0.01621689786273691</v>
+        <v>0.01660575203364341</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>66</v>
@@ -7440,19 +7440,19 @@
         <v>59629</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>45868</v>
+        <v>44618</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>78004</v>
+        <v>76461</v>
       </c>
       <c r="U103" s="6" t="n">
         <v>0.01630290303192134</v>
       </c>
       <c r="V103" s="6" t="n">
-        <v>0.01254064180642282</v>
+        <v>0.01219883815819909</v>
       </c>
       <c r="W103" s="6" t="n">
-        <v>0.021326916459915</v>
+        <v>0.02090498123097233</v>
       </c>
     </row>
     <row r="104">
@@ -7469,19 +7469,19 @@
         <v>106492</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>83642</v>
+        <v>81877</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>136455</v>
+        <v>135049</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>0.05912703187371101</v>
+        <v>0.059127031873711</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.04644002385445052</v>
+        <v>0.04546019219403304</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.07576303643348066</v>
+        <v>0.07498242926965154</v>
       </c>
       <c r="J104" s="5" t="n">
         <v>138</v>
@@ -7490,19 +7490,19 @@
         <v>92052</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>77473</v>
+        <v>76469</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>109935</v>
+        <v>108789</v>
       </c>
       <c r="N104" s="6" t="n">
-        <v>0.04958412864575931</v>
+        <v>0.0495841286457593</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>0.04173104536286793</v>
+        <v>0.04119028891105155</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>0.05921706998896666</v>
+        <v>0.05859971165804222</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>219</v>
@@ -7511,19 +7511,19 @@
         <v>198544</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>171226</v>
+        <v>170991</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>235731</v>
+        <v>231325</v>
       </c>
       <c r="U104" s="6" t="n">
         <v>0.05428330033709531</v>
       </c>
       <c r="V104" s="6" t="n">
-        <v>0.0468143609255281</v>
+        <v>0.04675005626454322</v>
       </c>
       <c r="W104" s="6" t="n">
-        <v>0.06445049204130145</v>
+        <v>0.06324571141910372</v>
       </c>
     </row>
     <row r="105">
@@ -7540,19 +7540,19 @@
         <v>204442</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>179569</v>
+        <v>178957</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>232604</v>
+        <v>232932</v>
       </c>
       <c r="G105" s="6" t="n">
         <v>0.1135112534242339</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>0.0997012033048425</v>
+        <v>0.09936120327267932</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>0.1291471451506214</v>
+        <v>0.1293292803496624</v>
       </c>
       <c r="J105" s="5" t="n">
         <v>307</v>
@@ -7561,19 +7561,19 @@
         <v>193335</v>
       </c>
       <c r="L105" s="5" t="n">
-        <v>172248</v>
+        <v>170929</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>219592</v>
+        <v>217146</v>
       </c>
       <c r="N105" s="6" t="n">
-        <v>0.10414080916437</v>
+        <v>0.1041408091643699</v>
       </c>
       <c r="O105" s="6" t="n">
-        <v>0.09278176600710218</v>
+        <v>0.0920714953835927</v>
       </c>
       <c r="P105" s="6" t="n">
-        <v>0.1182838454705124</v>
+        <v>0.1169664711707492</v>
       </c>
       <c r="Q105" s="5" t="n">
         <v>539</v>
@@ -7582,19 +7582,19 @@
         <v>397778</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>364411</v>
+        <v>367956</v>
       </c>
       <c r="T105" s="5" t="n">
-        <v>435844</v>
+        <v>435046</v>
       </c>
       <c r="U105" s="6" t="n">
         <v>0.108755057611553</v>
       </c>
       <c r="V105" s="6" t="n">
-        <v>0.09963242667699639</v>
+        <v>0.1006015734312655</v>
       </c>
       <c r="W105" s="6" t="n">
-        <v>0.1191626102900852</v>
+        <v>0.1189445170065771</v>
       </c>
     </row>
     <row r="106">
@@ -7611,19 +7611,19 @@
         <v>1331230</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>1287371</v>
+        <v>1289059</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>1372485</v>
+        <v>1372989</v>
       </c>
       <c r="G106" s="6" t="n">
-        <v>0.7391308074158979</v>
+        <v>0.7391308074158978</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>0.7147792447107179</v>
+        <v>0.7157166909780817</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>0.7620364477471089</v>
+        <v>0.7623161385811974</v>
       </c>
       <c r="J106" s="5" t="n">
         <v>2107</v>
@@ -7632,19 +7632,19 @@
         <v>1426164</v>
       </c>
       <c r="L106" s="5" t="n">
-        <v>1394205</v>
+        <v>1393207</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>1458416</v>
+        <v>1460275</v>
       </c>
       <c r="N106" s="6" t="n">
-        <v>0.7682080722432895</v>
+        <v>0.7682080722432894</v>
       </c>
       <c r="O106" s="6" t="n">
-        <v>0.7509931608611562</v>
+        <v>0.7504559014991976</v>
       </c>
       <c r="P106" s="6" t="n">
-        <v>0.7855810734562493</v>
+        <v>0.7865822933946219</v>
       </c>
       <c r="Q106" s="5" t="n">
         <v>3422</v>
@@ -7653,19 +7653,19 @@
         <v>2757393</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>2693335</v>
+        <v>2698753</v>
       </c>
       <c r="T106" s="5" t="n">
-        <v>2803508</v>
+        <v>2806331</v>
       </c>
       <c r="U106" s="6" t="n">
-        <v>0.7538896770469371</v>
+        <v>0.7538896770469369</v>
       </c>
       <c r="V106" s="6" t="n">
-        <v>0.7363759363893422</v>
+        <v>0.7378571229659471</v>
       </c>
       <c r="W106" s="6" t="n">
-        <v>0.7664979302874482</v>
+        <v>0.767269711306067</v>
       </c>
     </row>
     <row r="107">
